--- a/data/processed/y_test.xlsx
+++ b/data/processed/y_test.xlsx
@@ -436,1348 +436,1348 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>charges</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>45</v>
+        <v>9095.06825</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>36</v>
+        <v>5272.1758</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>64</v>
+        <v>29330.98315</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>46</v>
+        <v>9301.893550000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>19</v>
+        <v>33750.2918</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>34</v>
+        <v>4536.259</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>19</v>
+        <v>2117.33885</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>64</v>
+        <v>14210.53595</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>28</v>
+        <v>3732.6251</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>49</v>
+        <v>10264.4421</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>30</v>
+        <v>18259.216</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>41</v>
+        <v>7256.7231</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>29</v>
+        <v>3947.4131</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>46</v>
+        <v>46151.1245</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>60</v>
+        <v>48673.5588</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>47</v>
+        <v>44202.6536</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>49</v>
+        <v>9800.888199999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>47</v>
+        <v>42969.8527</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>46</v>
+        <v>8233.0975</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>43</v>
+        <v>21774.32215</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>25</v>
+        <v>5080.096</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>43</v>
+        <v>7441.501</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>19</v>
+        <v>1256.299</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>22</v>
+        <v>2755.02095</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>50</v>
+        <v>11085.5868</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>54</v>
+        <v>10923.9332</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>60</v>
+        <v>12644.589</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>27</v>
+        <v>18804.7524</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>47</v>
+        <v>9715.841</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>18</v>
+        <v>1131.5066</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>40</v>
+        <v>15828.82173</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>57</v>
+        <v>11842.62375</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>21</v>
+        <v>2020.5523</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>30</v>
+        <v>5693.4305</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>26</v>
+        <v>2904.088</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>45</v>
+        <v>7448.40395</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>21</v>
+        <v>2597.779</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43</v>
+        <v>7337.748</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>52</v>
+        <v>23887.6627</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>36</v>
+        <v>38709.176</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>19</v>
+        <v>4687.797</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>22</v>
+        <v>2643.2685</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>56</v>
+        <v>11674.13</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>59</v>
+        <v>12124.9924</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>33</v>
+        <v>4889.9995</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>59</v>
+        <v>12333.828</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>21</v>
+        <v>3579.8287</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>25</v>
+        <v>4391.652</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>43</v>
+        <v>42124.5153</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>31</v>
+        <v>4463.2051</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>63</v>
+        <v>13887.204</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>18</v>
+        <v>1719.4363</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>40</v>
+        <v>28476.73499</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>18</v>
+        <v>1708.92575</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>56</v>
+        <v>10594.2257</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>50</v>
+        <v>25333.33284</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>30</v>
+        <v>3645.0894</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>31</v>
+        <v>38746.3551</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>58</v>
+        <v>11848.141</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>53</v>
+        <v>10564.8845</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>63</v>
+        <v>13880.949</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>30</v>
+        <v>4753.6368</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>61</v>
+        <v>27941.28758</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>42</v>
+        <v>8017.06115</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>52</v>
+        <v>23045.56616</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>28</v>
+        <v>4133.64165</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>21</v>
+        <v>17942.106</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>52</v>
+        <v>25992.82104</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>25</v>
+        <v>3594.17085</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>22</v>
+        <v>1682.597</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>38</v>
+        <v>6079.6715</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>46</v>
+        <v>9411.004999999999</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>48</v>
+        <v>8283.680700000001</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>39</v>
+        <v>6338.0756</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>44</v>
+        <v>7152.6714</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>36</v>
+        <v>4889.0368</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>27</v>
+        <v>4846.92015</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>56</v>
+        <v>11454.0215</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>28</v>
+        <v>4349.462</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>45</v>
+        <v>9101.798000000001</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>20</v>
+        <v>1391.5287</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>62</v>
+        <v>28101.33305</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>32</v>
+        <v>5152.134</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>23</v>
+        <v>38511.6283</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>22</v>
+        <v>44501.3982</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>50</v>
+        <v>41097.16175</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>30</v>
+        <v>4837.5823</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>55</v>
+        <v>10601.63225</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>43</v>
+        <v>8310.83915</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>53</v>
+        <v>11264.541</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>62</v>
+        <v>15230.32405</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>64</v>
+        <v>27037.9141</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>47</v>
+        <v>23401.30575</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>31</v>
+        <v>5031.26955</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>33</v>
+        <v>38282.7495</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>41</v>
+        <v>6875.961</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>32</v>
+        <v>19719.6947</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>20</v>
+        <v>1880.07</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>30</v>
+        <v>18765.87545</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>35</v>
+        <v>6402.29135</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>30</v>
+        <v>4527.18295</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>19</v>
+        <v>1743.214</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>41</v>
+        <v>5709.1644</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>56</v>
+        <v>12363.547</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>61</v>
+        <v>13129.60345</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>18</v>
+        <v>1727.54</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>44</v>
+        <v>7731.4271</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>53</v>
+        <v>21195.818</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>18</v>
+        <v>1702.4553</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>53</v>
+        <v>23244.7902</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>19</v>
+        <v>23082.95533</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>26</v>
+        <v>2927.0647</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>58</v>
+        <v>13019.16105</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>34</v>
+        <v>37701.8768</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>49</v>
+        <v>9778.3472</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>20</v>
+        <v>1980.07</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>60</v>
+        <v>30259.99556</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>43</v>
+        <v>22478.6</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>37</v>
+        <v>6313.759</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>23</v>
+        <v>2789.0574</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>34</v>
+        <v>5594.8455</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>41</v>
+        <v>7261.741</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>52</v>
+        <v>11396.9002</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>24</v>
+        <v>1986.9334</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>28</v>
+        <v>4719.73655</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>41</v>
+        <v>7749.1564</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>43</v>
+        <v>7345.7266</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>49</v>
+        <v>9288.0267</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>59</v>
+        <v>12244.531</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>23</v>
+        <v>1837.2819</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>32</v>
+        <v>3972.9247</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>35</v>
+        <v>5934.3798</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>35</v>
+        <v>5836.5204</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>45</v>
+        <v>7935.29115</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>39</v>
+        <v>5649.715</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>59</v>
+        <v>12347.172</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>33</v>
+        <v>12404.8791</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>42</v>
+        <v>22144.032</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>44</v>
+        <v>42983.4585</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>37</v>
+        <v>37270.1512</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>36</v>
+        <v>5267.81815</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>51</v>
+        <v>9866.30485</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>26</v>
+        <v>2322.6218</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>52</v>
+        <v>33471.97189</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>25</v>
+        <v>2137.6536</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>49</v>
+        <v>23306.547</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>33</v>
+        <v>5261.46945</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>31</v>
+        <v>3761.292</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>51</v>
+        <v>11436.73815</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>35</v>
+        <v>4751.07</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>53</v>
+        <v>46661.4424</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>23</v>
+        <v>2690.1138</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>18</v>
+        <v>1146.7966</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>32</v>
+        <v>37607.5277</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>38</v>
+        <v>6373.55735</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>34</v>
+        <v>4518.82625</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>62</v>
+        <v>13555.0049</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>47</v>
+        <v>8547.6913</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>19</v>
+        <v>34439.8559</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>40</v>
+        <v>39125.33225</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>58</v>
+        <v>13607.36875</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>19</v>
+        <v>2710.82855</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>64</v>
+        <v>14988.432</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>23</v>
+        <v>2396.0959</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>23</v>
+        <v>3591.48</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>42</v>
+        <v>7162.0122</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>63</v>
+        <v>48824.45</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>57</v>
+        <v>43578.9394</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>44</v>
+        <v>39556.4945</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>25</v>
+        <v>2632.992</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>49</v>
+        <v>9182.17</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>39</v>
+        <v>6238.298</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>39</v>
+        <v>5757.41345</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>31</v>
+        <v>4239.89265</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>22</v>
+        <v>2154.361</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>47</v>
+        <v>21978.6769</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>19</v>
+        <v>16297.846</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>64</v>
+        <v>13831.1152</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>32</v>
+        <v>32734.1863</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>57</v>
+        <v>11830.6072</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>63</v>
+        <v>29523.1656</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>21</v>
+        <v>3167.45585</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>47</v>
+        <v>8428.069299999999</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>34</v>
+        <v>5012.471</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>29</v>
+        <v>5209.57885</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>24</v>
+        <v>2855.43755</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>29</v>
+        <v>20277.80751</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>30</v>
+        <v>3554.203</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>47</v>
+        <v>8569.861800000001</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>55</v>
+        <v>10594.50155</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>23</v>
+        <v>3597.596</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>18</v>
+        <v>7323.734819</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>22</v>
+        <v>2731.9122</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>31</v>
+        <v>38711</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>62</v>
+        <v>12981.3457</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>51</v>
+        <v>9283.562</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>19</v>
+        <v>2709.1119</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>54</v>
+        <v>12096.6512</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>18</v>
+        <v>2198.18985</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>50</v>
+        <v>8932.084000000001</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>26</v>
+        <v>3176.2877</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>52</v>
+        <v>24393.6224</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>30</v>
+        <v>4266.1658</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>19</v>
+        <v>22493.65964</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>20</v>
+        <v>17085.2676</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>27</v>
+        <v>16577.7795</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>50</v>
+        <v>8827.2099</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>22</v>
+        <v>4296.2712</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>48</v>
+        <v>7804.1605</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>25</v>
+        <v>3208.787</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>62</v>
+        <v>12957.118</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>57</v>
+        <v>22192.43711</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>46</v>
+        <v>9432.925300000001</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>26</v>
+        <v>17043.3414</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>40</v>
+        <v>6593.5083</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>30</v>
+        <v>4137.5227</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>33</v>
+        <v>4779.6023</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>59</v>
+        <v>14001.2867</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>60</v>
+        <v>12629.8967</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>35</v>
+        <v>5245.2269</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>21</v>
+        <v>2404.7338</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>44</v>
+        <v>6948.7008</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>37</v>
+        <v>6435.6237</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>43</v>
+        <v>42560.4304</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>22</v>
+        <v>2055.3249</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>28</v>
+        <v>34672.1472</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>19</v>
+        <v>1731.677</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>19</v>
+        <v>1639.5631</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>51</v>
+        <v>9377.904699999999</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>49</v>
+        <v>10977.2063</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>21</v>
+        <v>1534.3045</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>51</v>
+        <v>9644.252500000001</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>29</v>
+        <v>4529.477</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>43</v>
+        <v>37829.7242</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>52</v>
+        <v>9991.03765</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>49</v>
+        <v>8125.7845</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>26</v>
+        <v>3877.30425</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>42</v>
+        <v>5979.731</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>42</v>
+        <v>43896.3763</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>22</v>
+        <v>1674.6323</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>60</v>
+        <v>13204.28565</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>29</v>
+        <v>44585.45587</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>25</v>
+        <v>3021.80915</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>26</v>
+        <v>3392.9768</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>19</v>
+        <v>1632.03625</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>26</v>
+        <v>2699.56835</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>28</v>
+        <v>20177.67113</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>32</v>
+        <v>4076.497</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>52</v>
+        <v>12592.5345</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>19</v>
+        <v>1621.3402</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>20</v>
+        <v>1875.344</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>40</v>
+        <v>7196.867</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>28</v>
+        <v>3161.454</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>57</v>
+        <v>12029.2867</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>19</v>
+        <v>2719.27975</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>25</v>
+        <v>18218.16139</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>60</v>
+        <v>12146.971</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>26</v>
+        <v>3292.52985</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>49</v>
+        <v>8688.858850000001</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>31</v>
+        <v>6113.23105</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>40</v>
+        <v>8059.6791</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>61</v>
+        <v>13415.0381</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>27</v>
+        <v>18246.4955</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>63</v>
+        <v>47055.5321</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>58</v>
+        <v>12222.8983</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>38</v>
+        <v>6067.12675</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>54</v>
+        <v>63770.42801</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>51</v>
+        <v>9872.700999999999</v>
       </c>
     </row>
   </sheetData>
